--- a/all_annotated/VCEL_Q3_2017_3.xlsx
+++ b/all_annotated/VCEL_Q3_2017_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmand\Desktop\CS\VIP\SubjECTive-QA\Tarun-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmandapati/Desktop/VIP/Annotate/SubjECTive-QA/Tarun-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1CF047-5F00-4D4E-9B75-5007A3797B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAF8A2B-1AE0-AF46-AB9A-2D9A6CEADD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2550" windowWidth="19170" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2560" windowWidth="19180" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,6 +134,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,12 +482,12 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -532,25 +533,25 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -564,25 +565,25 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -596,25 +597,25 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -628,25 +629,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -660,25 +661,25 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -692,25 +693,25 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -724,25 +725,25 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -756,25 +757,25 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -791,19 +792,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
